--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="222">
   <si>
     <t>Categoria</t>
   </si>
@@ -187,31 +187,286 @@
     <t>1152</t>
   </si>
   <si>
+    <t>1153</t>
+  </si>
+  <si>
     <t>1151</t>
   </si>
   <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>3740</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>5160</t>
+  </si>
+  <si>
+    <t>2827</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>4615</t>
+  </si>
+  <si>
+    <t>2835</t>
+  </si>
+  <si>
+    <t>3158</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>4589</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>3715</t>
+  </si>
+  <si>
     <t>STO133M</t>
   </si>
   <si>
+    <t>STO133G</t>
+  </si>
+  <si>
     <t>STO133P</t>
   </si>
   <si>
+    <t>STO1690</t>
+  </si>
+  <si>
+    <t>STO2440</t>
+  </si>
+  <si>
+    <t>STO245</t>
+  </si>
+  <si>
+    <t>STO1332XL</t>
+  </si>
+  <si>
+    <t>STO1333XL</t>
+  </si>
+  <si>
+    <t>STO2565</t>
+  </si>
+  <si>
+    <t>STO1837XL</t>
+  </si>
+  <si>
+    <t>STO133XL</t>
+  </si>
+  <si>
+    <t>STO2274</t>
+  </si>
+  <si>
+    <t>STO1845</t>
+  </si>
+  <si>
+    <t>STO77VM110V</t>
+  </si>
+  <si>
+    <t>STO653</t>
+  </si>
+  <si>
+    <t>STO2445</t>
+  </si>
+  <si>
+    <t>STO457</t>
+  </si>
+  <si>
+    <t>STO370</t>
+  </si>
+  <si>
+    <t>STO1201</t>
+  </si>
+  <si>
+    <t>STO2128</t>
+  </si>
+  <si>
     <t>7896510596132</t>
   </si>
   <si>
+    <t>7898310125239</t>
+  </si>
+  <si>
     <t>7899310705254</t>
   </si>
   <si>
+    <t>7891841881834</t>
+  </si>
+  <si>
+    <t>7897380620392</t>
+  </si>
+  <si>
+    <t>7894645304011</t>
+  </si>
+  <si>
+    <t>7898445198351</t>
+  </si>
+  <si>
+    <t>7891841851592</t>
+  </si>
+  <si>
+    <t>7891841820604</t>
+  </si>
+  <si>
+    <t>7891841809517</t>
+  </si>
+  <si>
+    <t>7894874737727</t>
+  </si>
+  <si>
+    <t>7891841863748</t>
+  </si>
+  <si>
+    <t>7891841875321</t>
+  </si>
+  <si>
+    <t>7902036676057</t>
+  </si>
+  <si>
+    <t>7893206397011</t>
+  </si>
+  <si>
+    <t>7891841878926</t>
+  </si>
+  <si>
+    <t>7897537650654</t>
+  </si>
+  <si>
+    <t>7890127819530</t>
+  </si>
+  <si>
+    <t>7906690240449</t>
+  </si>
+  <si>
+    <t>7891841868392</t>
+  </si>
+  <si>
     <t>6212.20.00</t>
   </si>
   <si>
     <t>6212.30.00</t>
   </si>
   <si>
+    <t>9021-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>3922.90.00</t>
+  </si>
+  <si>
+    <t>8531.80.00</t>
+  </si>
+  <si>
+    <t>3924.90.00</t>
+  </si>
+  <si>
+    <t>6401.92.00</t>
+  </si>
+  <si>
+    <t>7607.19.90</t>
+  </si>
+  <si>
+    <t>9503.00.80</t>
+  </si>
+  <si>
+    <t>9019.10.00</t>
+  </si>
+  <si>
+    <t>8525.89.29</t>
+  </si>
+  <si>
+    <t>9506.99.00</t>
+  </si>
+  <si>
+    <t>6304.20.00</t>
+  </si>
+  <si>
+    <t>9603.90.00</t>
+  </si>
+  <si>
     <t>simple</t>
   </si>
   <si>
-    <t>Cinta Modeladora Dupla Compressão Redutor Ziper</t>
+    <t>Cinta Modeladora Dupla Compressão Redutor Ziper Cor:Preto Tamanho:M</t>
+  </si>
+  <si>
+    <t>Cinta Modeladora Dupla Compressão Redutor Ziper Cor:Preto Tamanho:G</t>
+  </si>
+  <si>
+    <t>Cinta Modeladora Dupla Compressão Redutor Ziper Cor:Preto Tamanho:P</t>
+  </si>
+  <si>
+    <t>Tala Para Dedo Em Gatilho Martelo Deformidades Lesoes Suporte</t>
+  </si>
+  <si>
+    <t>Porta Sabonete Saboneteira Parede Dupla Adesivo Banheiro</t>
+  </si>
+  <si>
+    <t>Repelente De Tomada Rato Barata Formiga Aranha Repelling Aid</t>
+  </si>
+  <si>
+    <t>Cinta Modeladora Dupla Compressão Redutor Ziper Cor:Preto Tamanho:XXL</t>
+  </si>
+  <si>
+    <t>Cinta Modeladora Dupla Compressão Redutor Ziper Cor:Preto Tamanho:XXXL</t>
+  </si>
+  <si>
+    <t>Kit 10 Tela Protetor Ralos Adesivos Anti Inseto Descartáveis</t>
+  </si>
+  <si>
+    <t>Polaina Bota Galocha Impermeavel Motoqueiro Moto Solado Chuva Preto Tamanho:XL</t>
+  </si>
+  <si>
+    <t>Cinta Modeladora Dupla Compressão Redutor Ziper Cor:Preto Tamanho:XL</t>
+  </si>
+  <si>
+    <t>Forma Para Hamburguer Caseiro Gourmet Modelador Alumínio</t>
+  </si>
+  <si>
+    <t>Brinquedo De Montar Interativo Plastico Blocos Infantil Coloridos Parafuso Encaixar</t>
+  </si>
+  <si>
+    <t>Drenagem Linfatica Massageador Eletrico Portatil Vermelho Voltagem:110V</t>
+  </si>
+  <si>
+    <t>Lampada Espiã Com Camera E Luz De Led Wifi HD</t>
+  </si>
+  <si>
+    <t>Kit 8 Estecas Esculpir Modelar Biscuit Massas Artesanato</t>
+  </si>
+  <si>
+    <t>STO457 - Kit Faixa Elastica Band Extensor 5 Niveis Resistance Belt - - Fitness</t>
+  </si>
+  <si>
+    <t>Corretor Postural Ortopedico Clavicula Ombros Costas</t>
+  </si>
+  <si>
+    <t>Tela Mosquiteiro Magnetica Para Janela Rede Removivel Anti Insetos Facil Instalação</t>
+  </si>
+  <si>
+    <t>Rodo Vassoura Silicone Multifuncional Cabo Extensor Limpa Vidros Pisos</t>
   </si>
   <si>
     <t>visible</t>
@@ -220,13 +475,97 @@
     <t>Colete Cinta Modeladora Dupla Compressão Redutor de Medidas Zíper Colchete Tamanho     Descrição:   Não dobra, não enrola, não marca na roupa, super confortável, não machuca, reduz de imediato a linha da cintura, corrige a postura, acelera a recuperação pós parto. A cinta é utilizada da cintura até a barriga, seu formato prove a elevação dos seios.   O poder de compressão é o equilíbrio perfeito entre uma cinta modeladora e um corselet. Seu efeito de compressão se dá no tecido adiposo subcutâneo. É um modelador mais potente que as cintas convencionais, porém suave para o dia a dia.   A Cinta Modeladora não limita os movimentos do tronco como um corselet tradicional. Tem elasticidade que garante a expansão torácica e abdominal completas, sem deixar de dar suporte a coluna e incentivar uma maior consciência corporal e possui alças elásticas ajustáveis.     Especificações/ Características do Produto:   Cor: Preto   Material: Forro de Algodão macio.   Fechamento: Colchetes e zíper.   Tamanho: S, M, L, XL, 2XL, 3XL.     P (S):   Largura da Cinta Fechada: 32cm   Circunferência Abdominal: 66 a 69cm   Comprimento: 35cm   Comprimento Abaixo dos Seios Até Cintura: 24cm   M:   Largura da Cinta Fechada: 34cm   Circunferência Abdominal: 69 a 71cm   Comprimento: 37cm   Comprimento Abaixo dos Seios Até Cintura: 24cm   L (G):   Largura da Cinta Fechada: 35cm   Circunferência Abdominal: 70 - 72cm   Comprimento: 37cm   Comprimento Abaixo dos Seios Até Cintura: 24cm   XL (GG):   Largura da Cinta Fechada: 38cm   Circunferência Abdominal: 79 - 82cm   Comprimento: 38cm   Comprimento Abaixo dos Seios Até Cintura: 25cm   XXL (2XG):   Largura da Cinta Fechada: 41cm   Circunferência Abdominal: 81 - 84cm   Comprimento: 39cm   Comprimento Abaixo dos Seios Até Cintura: 25cm   3XL (3XG):   Largura da Cinta Fechada: 42cm   Circunferência Abdominal: 83 - 85cm   Comprimento: 40cm   Comprimento Abaixo dos Seios Até Cintura: 26cm     Pode haver variações de poucos centímetros segundo o fabricante.   ATENÇÃO: Analise atentamente as medidas a cima, a forma é pequena, portanto é indicado medir antes o próprio corpo ou uma peça de roupa semelhante com uma fita métrica.     Item Incluso:   01x - Cinta Modeladora Dupla Compressão Redutor Ziper</t>
   </si>
   <si>
+    <t>Tala Para Dedo Em Gatilho Martelo Deformidades Lesões Suporte     A Tala Para Dedos é o acessório ideal para auxiliar no tratamento de rigidez nos dedos causados por traumas, contusões, lesões, pequenas fraturas, luxações, entre outras doenças que afetam as articulações dos dedos causando rigidez. Seu material é feito de um tecido respirável, e possui duas alças para melhor ajuste dependendo do tamanho do dedo. Acelera o processo de recuperação promovendo a estabilização da articulação, e reduz a chance de agravar o quadro.     Especificações Técnicas:   - Modelo: Tala Para Dedo Ajustável   - Material: Poliéster, e Alumínio.   - Cor: Preto   - Tamanho: Único   - Dimensões Aprox.: 8cm (Comprimento) X 8cm (Comprimento das Alças)   - Peso Aprox.: 5g     Itens Inclusos na Embalagem:   - 01x Tala Para Dedo Ajustável</t>
+  </si>
+  <si>
+    <t>Organize seu banheiro com estilo e praticidade! Porta sabonete dupla adesivo, horizontal e vertical. Nosso porta sabonete duplo adesivo é a solução perfeita para manter seus sabonetes sempre à mão e seu banheiro organizado. Com design moderno e funcional, ele se adapta a qualquer decoração e pode ser instalado tanto na horizontal quanto na vertical. Características: - Dupla funcionalidade: Acomoda dois sabonetes de diferentes tamanhos, otimizando o espaço. - Adesivo resistente: Garante fixação segura em diversos tipos de superfícies lisas, sem a necessidade de furos. - Versátil: Pode ser instalado na horizontal ou na vertical, adaptando-se ao seu espaço. - Fácil de limpar: Material resistente e de fácil manutenção. - Design moderno: Combina com qualquer estilo de banheiro, adicionando um toque de elegância.  Benefícios: - Prático: Mantenha seus sabonetes sempre à mão, evitando bagunça e facilitando o dia a dia. - Higiênico: Eleva seus sabonetes, evitando o contato direto com a pia e a proliferação de bactérias. - Instalação rápida e fácil: Não requer ferramentas, basta limpar a superfície e aplicar o adesivo.  Não perca mais tempo procurando seus sabonetes! Adquira agora mesmo nosso porta sabonete duplo adesivo e transforme seu banheiro em um ambiente mais organizado e bonito.  Especificações Técnicas: - Modelo: Porta Sabonete Duplo - Material: Plástico - Dimensões Aprox.: 17cm X 13cm X 9cm  Itens Inclusos na Embalagem: - 01x Base - 02x Porta Sabonete - 01x Adesivo</t>
+  </si>
+  <si>
+    <t>Repelente De Tomada Rato Barata Formiga Aranha Riddex Aid  Descrição:   Bivolt (110V / 220V)     Dispensa o uso de refil, basta ligar na tomada.   Funciona com sistema de pulsos de ultra som que irá repelir os insetos sem a necessidade de venenos ou produtos prejudiciais a saúde humana. Baixo consumo de energia elétrica. Recomendado para uso doméstico. Alcance: até 185 m² (Pode variar conforme as barreiras do ambiente). Alimentação: Bivolt (110/220V) * Não recomendado caso tenha roedores de estimação (hamster, preás, coelhos etc)</t>
+  </si>
+  <si>
+    <t>Seu lar merece proteção completa! Nosso Kit com 10 Telas Protetoras para Ralos é a solução ideal para manter seus ralos sempre limpos e livres de: - Insetos: Mosquitos, baratas e outros insetos indesejados não terão mais acesso à sua casa. - Cabelos e resíduos: Evite entupimentos e o mau cheiro causados pela acumulação de cabelos e outros resíduos. - Bactérias: As telinhas criam uma barreira física, reduzindo a proliferação de bactérias e germes. Por que escolher nossas telinhas? - Fácil de usar: Basta remover a película protetora e aderir a tela ao ralo. - Descartáveis: Troque as telinhas a cada uso ou quando necessário, sem complicações. - Versáteis: Adaptam-se a diversos tipos de ralos, como os de pias, banheiros e cozinhas. - Material resistente: Feitas com material de alta qualidade, garantindo durabilidade e eficiência. - Higiene: Mantenha seus ralos sempre limpos e higienizados. - Economia: Evite gastos com encanadores e produtos químicos.  Não perca mais tempo com ralos entupidos e cheios de insetos, adquira já o seu Kit e garanta a proteção completa do seu lar!  Especificações Técnicas: - Modelo: Tela Protetora Adesiva - Mateiral: Plástico Resistente - Dimensões Aprox.: 10cm X 10cm  Itens Inclusos na Embalagem: - 10x Tela Protetora Adesiva</t>
+  </si>
+  <si>
+    <t>Polaina Bota Galocha Impermeável Motoqueiro Moto Solado Chuva           A Polaina Bota Impermeável é o acessório perfeito para motoqueiros nos dias de chuvas, além de trazer segurança de noite com sinalizações refletivas. Possui sola emborrachada para melhor aderência, forro em PVC impermeável com alças elásticas para melhor ajustes. Fácil de dobrar tornando fácil de armazenar no baú da moto ou em qualquer lugar. Protege seu calçado nos dias mais chuvosos, evitando danos, e ajudando no dia a dia. Ideal para andar de moto, ciclismo, esqui, snowboard, pesca, escalada e outras atividades ao ar livre.           Especificações Técnicas:       - Modelo: Bota Polaina Protetora Chuva 43-45 XL       - Material: PVC, Borracha.       - Cor: Preto       - Fechamento: Zíper, Botões.       - Tamanho: 43-45 XL       - Dimensões Aprox.: 40cm (Altura) X 31,5cm (Comprimento da Sola) X 12,3cm (Largura da Sola)       - Peso Aprox.: 175g (Cada Pé)           Itens Inclusos na Embalagem:       - 01x Par Bota Polaina Protetora Chuva</t>
+  </si>
+  <si>
+    <t>Eleve seus hambúrgueres caseiros a um nível gourmet com a Forma para Hambúrguer! Crie hambúrgueres perfeitos, suculentos e saborosos com essa forma prática e fácil de usar. Feita de alumínio de alta qualidade, ela garante durabilidade, resistência e distribuição uniforme do calor, para hambúrgueres grelhados com textura profissional. Vantagens: - Hambúrgueres perfeitos: Molde hambúrgueres uniformes e compactos com espessura ideal para um cozimento perfeito. - Sabor gourmet: A base texturizada da forma imprime marcas de grelha nos hambúrgueres, dando um toque profissional e gourmet. - Fácil de usar: Basta pressionar a carne moída na forma e pronto! Sem bagunça e sem esforço. - Limpeza rápida e fácil: O alumínio antiaderente facilita a remoção dos hambúrgueres e garante uma limpeza rápida e fácil. Ideal para: - Amantes de hambúrgueres: Prepare hambúrgueres gourmet no conforto de casa para impressionar seus amigos e familiares. - Churrasqueiros experientes: Eleve seus churrascos com hambúrgueres uniformes, saborosos e profissionais. - Famílias: Faça hambúrgueres divertidos e saudáveis para toda a família.  Compre agora e experimente a diferença!  Especificações Técnicas: - Modelo: Forma para Hambúrguer - Material: Alumínio - Dimensões Aprox.: 7,5cm (Altura) X 11,5cm (Diâmetro)  Itens Inclusos na Embalagem: - 01x Forma para Hambúrguer</t>
+  </si>
+  <si>
+    <t>Brinquedo De Montar Interativo Plástico Blocos Infantil Coloridos           O Brinquedo De Montar Interativo estimula a percepção de cores e coordenação motora além de ser uma diversão garantida para crianças. Montar, desmontar, identificar erros e se divertir muito, encaixando as partes e trabalhando o raciocínio. Desperta a criatividade dos pequeninos, permitindo montarem o que bem desejar.            Atenção: Não Recomendado para Menores de 03 (Três) Anos           Especificações Técnicas:       - Modelo: Brinquedo De Montar Formas Parafuso Encaixar CY2103       - Material: Polipropileno       - Cor: Sortidos       - Certificação Inmetro:       CE-BRI/INNAC - 02484-01A       NM 300/2002       - Dimensões da Embalagem: 27cm X 21cm X 5cm       - Peso Aprox. da Embalagem: 300g           Itens Inclusos na Embalagem:       - 01x Conjunto C/ 24pcs</t>
+  </si>
+  <si>
+    <t>Drenagem Linfatica Massageador Eletrico Portatil Vermelho   Descrição: O Massageador Orbital é utilizado para eliminar as celulites, a flacidez e conseguir a redução de medidas. Com design moderno e inteligente, - Portátil, prático e eficiente, ele possui confortável empunhadura macia de borracha e realiza movimentos circulares e vibratórios. - Acompanha quatro acessórios para diferentes finalidades. Além disso, tonifica a musculatura exercitando e aliviando as tensões e dores musculares.- Sua massagem também ajuda a melhorar a circulação sanguínea.- Indicado para diversas áreas do corpo.- Alivia a tensão e o estresse nos ombros e nas costas, define e esculpe o abdômen, modela e tonifica os quadris, alivia a tensão muscular nas pernas e coxas, relaxa o músculo cansado e dolorido da panturrilha.- Com o uso da lixa remove calosidades e pele seca dos pés, além de proporcionar uma deliciosa e relaxante massagem nesta região.- Alta rotação, vibrações vigorosas que relaxam os músculos contraídos.- Intensidade da massagem regulável.- Possui quatro acessórios, é ideal para uso a qualquer hora em qualquer lugar. Acompanha Tampa Protetora Com Tecido: Sim, Para Revestir Os Discos. Especificações: - Cor: Vermelho e Branco- Potência Máxima De Rotação: 2500 Rpm. - Frequência: 60hz  - Potência: 25w - Regulagem De Velocidade: Sim - Cabo Ergonômico: Sim - Ajuste de velocidade por rotação  Itens Inclusos:- 1 Aparelho de massagem- 1 Disco De Massagem Ondulado.- 1 Disco De Massagem Com Roletes.- 1 Disco Com Lixa Para Pés.- 1 Disco De Massagem Liso.</t>
+  </si>
+  <si>
+    <t>Lâmpada Espiã de Led Câmera em HD com Wifi   Descrição:       - Esta câmera possui a tecnologia mais avançada atualmente para monitorar e cuidar de sua casa ou seu trabalho. - Ideal para utilizar em casa monitorar crianças, idosos, animais. - E também no trabalho para monitorar seu escritório, funcionários veículos. - Sistema Extremamente simples de instalar, basta colocar em um bocal de lâmpada comum; - Tem o tamanho e formato de uma lâmpada de led comum, discreto; - Conecta-se a sua rede wifi e a partir daí você pode visualizar e interagir de qualquer lugar do mundo através do seu celular ou tablet; - Se alguém entra no ambiente você receberá uma mensagem em seu telefone e poderá visualizar / interagir com a pessoa; - Aplicativo para Android e IOS; - Possui microfone para ouvir o som ambiente e auto falante para você poder falar com as pessoas no ambiente; - Você pode gravar ou fotografar a qualquer momento em seu telefone ou tablet; - Usando cartão SD a câmera vai gravando continuamente       Características:     - Câmera Ip 360 graus panorâmica, 1.3 Megapixel 1280 x 960 P alta definição, lente olho de peixe, com aplicativo de controle e visualização pelo telefone móvel com IOS ou Android. Controle de luminosidade através do celular, 2 vias de áudio (pode falar e ouvir, através da lâmpada), Controle de inclinação e Zoom, com slot para cartão de TF até 128 GB de armazenamento de vídeo de qualidade.     - 1 Sensor CMOS 1.1.3 Megapixel 1280 x 960 P - 2 Câmera com lente Fisheye grau 3,185   - 3 Vita útil da lâmapda: 10.000 até 15.000 horas - 4 IEEE802.11b/g/n sem fio - 5 HD 960 P 1.3 Megapixel - 6 P2P nuvem, através do App do celular - 7 Áudio 2 vias Intercomunicação - 8 Visão noturna 8.ir-corte - 9 Zoom digital Pan/Tilt - 10 Suporte SD Card Max 128 GB - 11 Iluminação Led 3 w       Itens inclusos:   - 1 Lâmpada Câmera 3d Panorâmica - 1 Suporte para Fixação</t>
+  </si>
+  <si>
+    <t>Sua Criatividade sem Limites! Libere sua criatividade com o nosso kit completo de 8 estecas, cada uma com 16 pontas diferentes, especialmente desenvolvidas para esculpir e modelar biscuit, massas e outros materiais de artesanato. Com este kit versátil, você terá todas as ferramentas necessárias para dar vida às suas ideias mais incríveis. Características: - 8 Estecas Versáteis: Cada esteca possui 2 pontas com designs únicos, permitindo uma variedade de texturas e detalhes nas suas peças. - Materiais de Alta Qualidade: Fabricadas com materiais duráveis, garantindo longa vida útil e precisão nos trabalhos. - Ideal para Todos os Níveis: Se você é um iniciante ou um artesão experiente, este kit é perfeito para aprimorar suas habilidades. - Versatilidade: Utilize as estecas para trabalhar com biscuit, porcelana fria, pasta americana, polímero e outros materiais. - Fácil de Limpar: As estecas são fáceis de limpar, permitindo que você as utilize em diversos projetos.  Benefícios: - Resultados Profissionais: Crie peças com acabamento impecável e detalhes precisos. - Aumento da Criatividade: Explore diferentes técnicas e desenvolva seu próprio estilo. - Diversão Garantida: Desfrute de horas de diversão e relaxamento enquanto cria peças únicas. - Presente Perfeito: Ideal para presentear amantes de artesanato e iniciantes na arte de modelar.  Não perca esta oportunidade de expandir seus horizontes criativos! Adquira agora mesmo o seu Kit Completo de Estecas e comece a transformar suas ideias em realidade.  Especificações Técnicas: - Modelo: Kit 8 Estecas Esculpir - Material: Plástico Resistente - Dimensões Aprox.: 16,8cm (Comprimento Médio)  Itens Inclusos na Embalagem: - 08x Estecas Esculpir</t>
+  </si>
+  <si>
+    <t>Kit Faixa Elástica Band Extensor 5 Níveis Resistance Belt Use o Band Elástico para reforço/resistência muscular, alongamento, cordenação motora e performance funcionalIdeal para reabilitação de lesões, prevenção de recidivas de lesões, uso pós cirúrgico Alterne entre as cinco intensidades dos elásticos.    Tabela de intensidade: Verde: 2-4 Ibs Azul: 6-8 Ibs Amarelo: 10-12 Ibs Vermelho: 15-20 Ibs Preto: 25-30 Ibs Especificação/Características do Produto- Material: Látex - Cor: Azul, Verde, Amarelo, Preto, Vermelho (envio aleatório conforme disponibilidade em estoque)- 5 Níveis de intensidades- Dimensão: 60 x 5 cm Itens Inclusos- 5 Faixa de resistência (cada um com um nível); - 1 Manual com exercícios.</t>
+  </si>
+  <si>
+    <t>Corretor Postural Ortopédico Clavícula Ombros CostasDescrição:Obtenha facilmente a postura perfeita de pé, sentado ou andando.Alinha seus ombros, coluna vertebral e parte superior das costas.Melhorar a postura e reduzir o vício de curva das costas imediatamente com facilidade ajustando a alça dupla.Leve acolchoado neoprene corrector pode ser usado confortavelmente sob ou sobre a roupa.Elimina pescoço e dor nas costas da posição sentada com ombros arredondados na frente do computador.Usar todos os dias para treinar a sua postura-é quase invisível quando usado sob a camisa.   Item Incluso: - 01x Corretor Postural Ortopédico Clavícula Ombros Costas</t>
+  </si>
+  <si>
+    <t>Tela Mosquiteiro Magnética Para Janela Rede Removível Anti Insetos   Descrição do Produto:  A Tela Mosquiteiro Magnética é super prática e conveniente de usar protegendo você e sua família de insetos, como mosquitos, moscas, vespas. É de fácil instalação, feita por meio fitas adesivas com imã sem sujar e nem danificar a superfície de sua janela. Tenha a praticidade de retirar, e recolocar facilmente.   Especificações do Produto:  - Cor da Tela: Branco. - Tamanho: 1,50 m x 1,80 m - Medida dos Orifícios da Rede: 1,6~1,8 mm - Tamanho da Fita Magnética: 145 cm - Material da Rede: Fibra com PVC   Itens Inclusos na Embalagem:  - 01x Tela Mosquiteiro - 02x Fitas Magnéticas</t>
+  </si>
+  <si>
+    <t>Pode lidar com qualquer bagunça, economizando tempo, esforço e espaço.Se você está lidando com sujeira, cabelo humano e animal de estimação, derramamentos de líquidos, vidro quebrado ou ketchup pegajoso o Rodo Silicone é o ideal!Limpeza versátil em todas as superfícies, é a ferramenta de limpeza perfeita para qualquer superfície em sua casa. Se você tem pisos de madeira, azulejos, carpetes ou tapetes.Ele é projetado para lidar com qualquer bagunça. E não pára por aí - com o seu design versátil, também pode limpar janelas, paredes do chuveiro e muito mais. Não importa a superfície, ele vai deixá-lo impecável.   Dimensôes:Largura: 50 cmComprimento da Extensão Máxima: 1,35 MtsComprimento da Extensão Mínima: 90 cmItens    Inclusos:1 Rodo De Silicone 50 cm Multiuso</t>
+  </si>
+  <si>
     <t>taxable</t>
   </si>
   <si>
-    <t>139150</t>
-  </si>
-  <si>
-    <t>138443</t>
+    <t>143745</t>
+  </si>
+  <si>
+    <t>196409</t>
+  </si>
+  <si>
+    <t>141072</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>50741</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>70267</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>65500</t>
+  </si>
+  <si>
+    <t>87464</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>105981</t>
+  </si>
+  <si>
+    <t>3452</t>
+  </si>
+  <si>
+    <t>11942</t>
+  </si>
+  <si>
+    <t>305</t>
   </si>
   <si>
     <t>0.18</t>
@@ -235,28 +574,112 @@
     <t>0.15</t>
   </si>
   <si>
-    <t>19.71</t>
-  </si>
-  <si>
-    <t>https://app.gruposhopmix.com.br/uploads/1738584373-2.jpg;https://app.gruposhopmix.com.br/uploads/1738584373-1.jpg;https://app.gruposhopmix.com.br/uploads/1738584373-0.jpg;https://app.gruposhopmix.com.br/uploads/1738584373-3.jpg</t>
-  </si>
-  <si>
-    <t>https://app.gruposhopmix.com.br/uploads/1738584460-0.jpg;https://app.gruposhopmix.com.br/uploads/1738584465-1.jpg;https://app.gruposhopmix.com.br/uploads/1738584465-2.jpg</t>
-  </si>
-  <si>
-    <t>Tamanho</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Preto</t>
-  </si>
-  <si>
-    <t>Cor</t>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>19,71</t>
+  </si>
+  <si>
+    <t>11,61</t>
+  </si>
+  <si>
+    <t>31,41</t>
+  </si>
+  <si>
+    <t>17,91</t>
+  </si>
+  <si>
+    <t>24,21</t>
+  </si>
+  <si>
+    <t>94,41</t>
+  </si>
+  <si>
+    <t>88,11</t>
+  </si>
+  <si>
+    <t>17,01</t>
+  </si>
+  <si>
+    <t>30,51</t>
+  </si>
+  <si>
+    <t>21,51</t>
+  </si>
+  <si>
+    <t>https://app.gruposhopmix.com.br/uploads/1738584373-2.jpg, https://app.gruposhopmix.com.br/uploads/1738584373-1.jpg, https://app.gruposhopmix.com.br/uploads/1738584373-0.jpg, https://app.gruposhopmix.com.br/uploads/1738584373-3.jpg</t>
+  </si>
+  <si>
+    <t>https://app.gruposhopmix.com.br/uploads/1738584430-0.jpg, https://app.gruposhopmix.com.br/uploads/1738584435-1.jpg</t>
+  </si>
+  <si>
+    <t>https://app.gruposhopmix.com.br/uploads/1738584460-0.jpg, https://app.gruposhopmix.com.br/uploads/1738584465-1.jpg, https://app.gruposhopmix.com.br/uploads/1738584465-2.jpg</t>
+  </si>
+  <si>
+    <t>https://app.gruposhopmix.com.br/uploads/1738584578-0.jpg, https://app.gruposhopmix.com.br/uploads/1738584578-1.jpg</t>
+  </si>
+  <si>
+    <t>https://app.gruposhopmix.com.br/uploads/1732536344-0.jpg, https://app.gruposhopmix.com.br/uploads/1739364627-2.jpg, https://app.gruposhopmix.com.br/uploads/1739364627-1.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO245/1.jpg, https://bdi.mixcommerce.com.br/STO245/2.jpg, https://bdi.mixcommerce.com.br/STO245/3.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO133/1.jpg, https://bdi.mixcommerce.com.br/STO133/4.JPG, https://bdi.mixcommerce.com.br/STO133/3.JPG, https://bdi.mixcommerce.com.br/STO133/2.JPG</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO2565/1.jpg, https://bdi.mixcommerce.com.br/STO2565/2.jpg, https://bdi.mixcommerce.com.br/STO2565/3.jpg, https://bdi.mixcommerce.com.br/STO2565/4.jpg, https://bdi.mixcommerce.com.br/STO2565/5.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO1837/4.jpg, https://bdi.mixcommerce.com.br/STO1837/1.jpg, https://bdi.mixcommerce.com.br/STO1837/2.jpg, https://bdi.mixcommerce.com.br/STO1837/3.jpg, https://bdi.mixcommerce.com.br/STO1837/7.jpg, https://bdi.mixcommerce.com.br/STO1837/5.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO2274/1.jpg, https://bdi.mixcommerce.com.br/STO2274/2.jpg, https://bdi.mixcommerce.com.br/STO2274/3.jpg, https://bdi.mixcommerce.com.br/STO2274/4.jpg, https://bdi.mixcommerce.com.br/STO2274/5.jpg, https://bdi.mixcommerce.com.br/STO2274/6.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO1845/1.jpg, https://bdi.mixcommerce.com.br/STO1845/2.jpg, https://bdi.mixcommerce.com.br/STO1845/3.jpg, https://bdi.mixcommerce.com.br/STO1845/4.jpg, https://bdi.mixcommerce.com.br/STO1845/5.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO77/12.jpg, https://bdi.mixcommerce.com.br/STO77/13.jpg, https://bdi.mixcommerce.com.br/STO77/14.jpg, https://bdi.mixcommerce.com.br/STO77/15.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO653/1.JPG, https://bdi.mixcommerce.com.br/STO653/2.JPG, https://bdi.mixcommerce.com.br/STO653/3.JPG, https://bdi.mixcommerce.com.br/STO653/4.JPG, https://bdi.mixcommerce.com.br/STO653/5.JPG</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO2445/1.jpg, https://bdi.mixcommerce.com.br/STO2445/2.jpg, https://bdi.mixcommerce.com.br/STO2445/3.jpg, https://bdi.mixcommerce.com.br/STO2445/4.jpg, https://bdi.mixcommerce.com.br/STO2445/5.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO457/1.jpg, https://bdi.mixcommerce.com.br/STO457/2.jpg, https://bdi.mixcommerce.com.br/STO457/3.jpg, https://bdi.mixcommerce.com.br/STO457/4.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO370/1.jpg, https://bdi.mixcommerce.com.br/STO370/2.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO1201/1.jpg, https://bdi.mixcommerce.com.br/STO1201/2.jpg, https://bdi.mixcommerce.com.br/STO1201/5.jpg, https://bdi.mixcommerce.com.br/STO1201/6.jpg</t>
+  </si>
+  <si>
+    <t>https://bdi.mixcommerce.com.br/STO2128/1.jpg, https://bdi.mixcommerce.com.br/STO2128/2.jpg, https://bdi.mixcommerce.com.br/STO2128/3.jpg, https://bdi.mixcommerce.com.br/STO2128/4.jpg, https://bdi.mixcommerce.com.br/STO2128/5.jpg, https://bdi.mixcommerce.com.br/STO2128/6.jpg</t>
   </si>
 </sst>
 </file>
@@ -627,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,22 +1231,22 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -832,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="U2">
         <v>3</v>
@@ -856,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="Y2">
         <v>30</v>
@@ -871,31 +1294,16 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
       <c r="AW2">
         <v>1</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>79</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -909,22 +1317,22 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -933,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="U3">
         <v>3</v>
@@ -957,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="Y3">
         <v>17</v>
@@ -972,33 +1380,1566 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>170</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y4">
+        <v>17</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>171</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>12</v>
+      </c>
+      <c r="AA5">
+        <v>16</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>167</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>172</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>167</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>173</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y7">
+        <v>9</v>
+      </c>
+      <c r="Z7">
+        <v>15</v>
+      </c>
+      <c r="AA7">
+        <v>20</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>167</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>174</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y8">
+        <v>17</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>30</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>167</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>175</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y9">
+        <v>30</v>
+      </c>
+      <c r="Z9">
+        <v>17</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>167</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>176</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>11</v>
+      </c>
+      <c r="AA10">
+        <v>11</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>167</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>177</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>19</v>
+      </c>
+      <c r="AA11">
+        <v>39</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>178</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y12">
+        <v>17</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>30</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>167</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <v>9</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>167</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>180</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>20</v>
+      </c>
+      <c r="AA14">
+        <v>28</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>167</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>181</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y15">
+        <v>18</v>
+      </c>
+      <c r="Z15">
+        <v>25</v>
+      </c>
+      <c r="AA15">
+        <v>11</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>167</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>182</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>18</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>167</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>183</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17">
+        <v>18</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>179</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AA18">
+        <v>12</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>20</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>175</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20">
+        <v>7</v>
+      </c>
+      <c r="Z20">
+        <v>14</v>
+      </c>
+      <c r="AA20">
+        <v>22</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="AT3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA3">
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>175</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>30</v>
+      </c>
+      <c r="AA21">
+        <v>55</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
         <v>0</v>
       </c>
     </row>
@@ -1006,6 +2947,24 @@
   <hyperlinks>
     <hyperlink ref="AI2" r:id="rId1"/>
     <hyperlink ref="AI3" r:id="rId2"/>
+    <hyperlink ref="AI4" r:id="rId3"/>
+    <hyperlink ref="AI5" r:id="rId4"/>
+    <hyperlink ref="AI6" r:id="rId5"/>
+    <hyperlink ref="AI7" r:id="rId6"/>
+    <hyperlink ref="AI8" r:id="rId7"/>
+    <hyperlink ref="AI9" r:id="rId8"/>
+    <hyperlink ref="AI10" r:id="rId9"/>
+    <hyperlink ref="AI11" r:id="rId10"/>
+    <hyperlink ref="AI12" r:id="rId11"/>
+    <hyperlink ref="AI13" r:id="rId12"/>
+    <hyperlink ref="AI14" r:id="rId13"/>
+    <hyperlink ref="AI15" r:id="rId14"/>
+    <hyperlink ref="AI16" r:id="rId15"/>
+    <hyperlink ref="AI17" r:id="rId16"/>
+    <hyperlink ref="AI18" r:id="rId17"/>
+    <hyperlink ref="AI19" r:id="rId18"/>
+    <hyperlink ref="AI20" r:id="rId19"/>
+    <hyperlink ref="AI21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
